--- a/Glider/data/archetype_summary.xlsx
+++ b/Glider/data/archetype_summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Malcolm\Git\glider\Glider\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earmmor\Git\glider\Glider\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="archetype_summary" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1174">
   <si>
     <t>archcode</t>
   </si>
@@ -3527,12 +3527,27 @@
   </si>
   <si>
     <t>csum</t>
+  </si>
+  <si>
+    <t>Checks</t>
+  </si>
+  <si>
+    <t>Nsamle</t>
+  </si>
+  <si>
+    <t>Nhouse</t>
+  </si>
+  <si>
+    <t>Less than</t>
+  </si>
+  <si>
+    <t>More than</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -3673,7 +3688,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3859,6 +3874,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4021,7 +4042,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4035,6 +4056,8 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -4095,7 +4118,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4134,6 +4157,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7645,7 +7669,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0E24-4859-8938-D84EA58B6F61}"/>
             </c:ext>
@@ -7659,11 +7683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296778879"/>
-        <c:axId val="222236751"/>
+        <c:axId val="286200384"/>
+        <c:axId val="289721992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296778879"/>
+        <c:axId val="286200384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1200"/>
@@ -7720,12 +7744,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222236751"/>
+        <c:crossAx val="289721992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222236751"/>
+        <c:axId val="289721992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="24000000"/>
@@ -7783,7 +7807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296778879"/>
+        <c:crossAx val="286200384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000000"/>
@@ -8388,7 +8412,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="56" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8399,13 +8423,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308171" cy="6086707"/>
+    <xdr:ext cx="9286875" cy="6038170"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3F2DA5-D835-45BC-B36F-FD5EE8CEF971}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E3F2DA5-D835-45BC-B36F-FD5EE8CEF971}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8725,10 +8749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1148"/>
+  <dimension ref="A1:AC1148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8752,9 +8776,11 @@
     <col min="19" max="20" width="4" customWidth="1"/>
     <col min="21" max="22" width="4.28515625" style="4" customWidth="1"/>
     <col min="23" max="23" width="3.42578125" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="69.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="69.75" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8822,79 +8848,79 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>1620874</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>1008</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>1955</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>1981</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>63</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>70</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="7">
         <v>8</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="7">
         <v>12</v>
       </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="K2" s="7">
+        <v>100</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>2</v>
+      </c>
+      <c r="N2" s="7">
         <v>3</v>
       </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>2</v>
-      </c>
-      <c r="R2" s="4">
-        <v>2</v>
-      </c>
-      <c r="S2">
+      <c r="O2" s="7">
+        <v>5</v>
+      </c>
+      <c r="P2" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>2</v>
+      </c>
+      <c r="R2" s="7">
+        <v>2</v>
+      </c>
+      <c r="S2" s="7">
         <v>12</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="7">
         <v>17</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="7">
         <v>68</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="7">
         <v>88</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="7">
         <f>SUM($C$2:C2)</f>
         <v>1620874</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -8965,8 +8991,14 @@
         <f>SUM($C$2:C3)</f>
         <v>2702749</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>32</v>
       </c>
@@ -9037,8 +9069,17 @@
         <f>SUM($C$2:C4)</f>
         <v>3731756</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -9109,8 +9150,19 @@
         <f>SUM($C$2:C5)</f>
         <v>4736360</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="6">
+        <f>SUMIF($D$2:$D$1148,"&lt;=1",$C$2:$C$1148)</f>
+        <v>1142053</v>
+      </c>
+      <c r="AC5" s="6">
+        <f>SUMIF($D$2:$D$1148,"&gt;=1",$C$2:$C$1148)</f>
+        <v>23253781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9181,8 +9233,19 @@
         <f>SUM($C$2:C6)</f>
         <v>5463852</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="6">
+        <f>SUMIF($D$2:$D$1148,"&lt;=5",$C$2:$C$1148)</f>
+        <v>3514853</v>
+      </c>
+      <c r="AC6" s="6">
+        <f>SUMIF($D$2:$D$1148,"&gt;=5",$C$2:$C$1148)</f>
+        <v>20222640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9253,8 +9316,19 @@
         <f>SUM($C$2:C7)</f>
         <v>6161383</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="6">
+        <f>SUMIF($D$2:$D$1148,"&lt;=10",$C$2:$C$1148)</f>
+        <v>4902480</v>
+      </c>
+      <c r="AC7" s="6">
+        <f>SUMIF($D$2:$D$1148,"&gt;=10",$C$2:$C$1148)</f>
+        <v>18608426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9325,8 +9399,19 @@
         <f>SUM($C$2:C8)</f>
         <v>6785416</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="6">
+        <f>SUMIF($D$2:$D$1148,"&lt;=50",$C$2:$C$1148)</f>
+        <v>9037115</v>
+      </c>
+      <c r="AC8" s="6">
+        <f>SUMIF($D$2:$D$1148,"&gt;=50",$C$2:$C$1148)</f>
+        <v>14216666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -9397,8 +9482,19 @@
         <f>SUM($C$2:C9)</f>
         <v>7387912</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="6">
+        <f>SUMIF($D$2:$D$1148,"&lt;=100",$C$2:$C$1148)</f>
+        <v>11826641</v>
+      </c>
+      <c r="AC9" s="6">
+        <f>SUMIF($D$2:$D$1148,"&gt;=100",$C$2:$C$1148)</f>
+        <v>11532104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -9469,8 +9565,19 @@
         <f>SUM($C$2:C10)</f>
         <v>7937865</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <v>500</v>
+      </c>
+      <c r="AB10" s="6">
+        <f>SUMIF($D$2:$D$1148,"&lt;=500",$C$2:$C$1148)</f>
+        <v>19546428</v>
+      </c>
+      <c r="AC10" s="6">
+        <f>SUMIF($D$2:$D$1148,"&gt;=500",$C$2:$C$1148)</f>
+        <v>3707353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>39</v>
       </c>
@@ -9541,8 +9648,19 @@
         <f>SUM($C$2:C11)</f>
         <v>8465856</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <v>1010</v>
+      </c>
+      <c r="AB11" s="6">
+        <f>SUMIF($D$2:$D$1148,"&lt;=1010",$C$2:$C$1148)</f>
+        <v>23253781</v>
+      </c>
+      <c r="AC11" s="6">
+        <f>SUMIF($D$2:$D$1148,"&gt;=1010",$C$2:$C$1148)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>26</v>
       </c>
@@ -9614,79 +9732,79 @@
         <v>8904506</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="8">
         <v>427160</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>266</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <v>1980</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>2001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>64</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>74</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="7">
         <v>3</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="7">
         <v>6</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="7">
         <v>94</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13">
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
         <v>10</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="7">
         <v>14</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="7">
         <v>39</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="7">
         <v>54</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="7">
         <f>SUM($C$2:C13)</f>
         <v>9331666</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -9758,7 +9876,7 @@
         <v>9723079</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>38</v>
       </c>
@@ -9830,7 +9948,7 @@
         <v>10101097</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -10406,74 +10524,74 @@
         <v>11958151</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="8">
         <v>172866</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>75</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="7">
         <v>1880</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="7">
         <v>1917</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>56</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>64</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="7">
         <v>9</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="7">
         <v>14</v>
       </c>
-      <c r="K24">
-        <v>100</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
-        <v>2</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="K24" s="7">
+        <v>100</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7">
         <v>3</v>
       </c>
-      <c r="O24">
-        <v>5</v>
-      </c>
-      <c r="P24">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>1</v>
-      </c>
-      <c r="R24" s="4">
-        <v>2</v>
-      </c>
-      <c r="S24">
+      <c r="O24" s="7">
+        <v>5</v>
+      </c>
+      <c r="P24" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>1</v>
+      </c>
+      <c r="R24" s="7">
+        <v>2</v>
+      </c>
+      <c r="S24" s="7">
         <v>18</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="7">
         <v>25</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="7">
         <v>72</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="7">
         <v>101</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="7">
         <f>SUM($C$2:C24)</f>
         <v>12131017</v>
       </c>
